--- a/files/products.xlsx
+++ b/files/products.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>qty</t>
   </si>
@@ -30,29 +30,234 @@
     <t>unitprice</t>
   </si>
   <si>
-    <t xml:space="preserve"> ALTERNATOR</t>
-  </si>
-  <si>
-    <t>num part</t>
+    <t>part no</t>
   </si>
   <si>
     <t xml:space="preserve">01-11088 </t>
   </si>
   <si>
-    <t>01-11088</t>
-  </si>
-  <si>
     <t>ALTERNATOR</t>
+  </si>
+  <si>
+    <t>STARTER</t>
+  </si>
+  <si>
+    <t>01-987</t>
+  </si>
+  <si>
+    <t>01-988</t>
+  </si>
+  <si>
+    <t>01-989</t>
+  </si>
+  <si>
+    <t>01-990</t>
+  </si>
+  <si>
+    <t>01-991</t>
+  </si>
+  <si>
+    <t>01-992</t>
+  </si>
+  <si>
+    <t>01-993</t>
+  </si>
+  <si>
+    <t>01-994</t>
+  </si>
+  <si>
+    <t>01-995</t>
+  </si>
+  <si>
+    <t>01-996</t>
+  </si>
+  <si>
+    <t>01-997</t>
+  </si>
+  <si>
+    <t>01-998</t>
+  </si>
+  <si>
+    <t>01-999</t>
+  </si>
+  <si>
+    <t>01-1000</t>
+  </si>
+  <si>
+    <t>01-1001</t>
+  </si>
+  <si>
+    <t>01-1002</t>
+  </si>
+  <si>
+    <t>01-1003</t>
+  </si>
+  <si>
+    <t>01-1004</t>
+  </si>
+  <si>
+    <t>01-1005</t>
+  </si>
+  <si>
+    <t>01-1006</t>
+  </si>
+  <si>
+    <t>01-1007</t>
+  </si>
+  <si>
+    <t>01-1008</t>
+  </si>
+  <si>
+    <t>01-1009</t>
+  </si>
+  <si>
+    <t>01-1010</t>
+  </si>
+  <si>
+    <t>01-1011</t>
+  </si>
+  <si>
+    <t>01-1012</t>
+  </si>
+  <si>
+    <t>01-1013</t>
+  </si>
+  <si>
+    <t>01-1014</t>
+  </si>
+  <si>
+    <t>01-1015</t>
+  </si>
+  <si>
+    <t>01-1016</t>
+  </si>
+  <si>
+    <t>01-1017</t>
+  </si>
+  <si>
+    <t>01-1018</t>
+  </si>
+  <si>
+    <t>01-1019</t>
+  </si>
+  <si>
+    <t>01-1020</t>
+  </si>
+  <si>
+    <t>01-1021</t>
+  </si>
+  <si>
+    <t>01-1022</t>
+  </si>
+  <si>
+    <t>01-1023</t>
+  </si>
+  <si>
+    <t>01-1024</t>
+  </si>
+  <si>
+    <t>01-1025</t>
+  </si>
+  <si>
+    <t>01-1026</t>
+  </si>
+  <si>
+    <t>01-1027</t>
+  </si>
+  <si>
+    <t>01-1028</t>
+  </si>
+  <si>
+    <t>01-1029</t>
+  </si>
+  <si>
+    <t>01-1030</t>
+  </si>
+  <si>
+    <t>01-1031</t>
+  </si>
+  <si>
+    <t>01-1032</t>
+  </si>
+  <si>
+    <t>01-1033</t>
+  </si>
+  <si>
+    <t>01-1034</t>
+  </si>
+  <si>
+    <t>01-1035</t>
+  </si>
+  <si>
+    <t>01-1036</t>
+  </si>
+  <si>
+    <t>01-1037</t>
+  </si>
+  <si>
+    <t>01-1038</t>
+  </si>
+  <si>
+    <t>01-1039</t>
+  </si>
+  <si>
+    <t>01-1040</t>
+  </si>
+  <si>
+    <t>01-1041</t>
+  </si>
+  <si>
+    <t>01-1042</t>
+  </si>
+  <si>
+    <t>01-1043</t>
+  </si>
+  <si>
+    <t>01-1044</t>
+  </si>
+  <si>
+    <t>01-1045</t>
+  </si>
+  <si>
+    <t>01-1046</t>
+  </si>
+  <si>
+    <t>01-1047</t>
+  </si>
+  <si>
+    <t>01-1048</t>
+  </si>
+  <si>
+    <t>01-1049</t>
+  </si>
+  <si>
+    <t>01-1050</t>
+  </si>
+  <si>
+    <t>01-1051</t>
+  </si>
+  <si>
+    <t>01-1052</t>
+  </si>
+  <si>
+    <t>01-1053</t>
+  </si>
+  <si>
+    <t>01-1054</t>
+  </si>
+  <si>
+    <t>01-1055</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -60,13 +265,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -93,17 +291,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -182,6 +386,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,6 +421,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,29 +597,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C11"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.28515625"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.28515625"/>
     <col min="4" max="4" width="11.28515625"/>
     <col min="5" max="5" width="12.5703125"/>
     <col min="6" max="1026" width="11.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -422,159 +627,991 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="2">
         <v>419.76</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>419.76</v>
-      </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>419.76</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="1">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>419</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="1">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>419.76</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="1">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5190.76</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="1">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>419.76</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="1">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>419.76</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="1">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>419.76</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="1">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>419.76</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>38</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>43</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>44</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>45</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>46</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>47</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>48</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>49</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>50</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>51</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>52</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>53</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>54</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>55</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>56</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>57</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>58</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>59</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>60</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>61</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>62</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>63</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>64</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>65</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>66</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>67</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>68</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>69</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>70</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>71</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>72</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>73</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>74</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>75</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>76</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>77</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>78</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>79</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>80</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>81</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>82</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="4">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
